--- a/Assets/06.Tables/Excel/Food.xlsx
+++ b/Assets/06.Tables/Excel/Food.xlsx
@@ -155,7 +155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,10 +173,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -366,7 +362,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -422,11 +418,6 @@
       <c r="C3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -438,11 +429,6 @@
       <c r="C4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -454,11 +440,6 @@
       <c r="C5" s="1" t="n">
         <v>-10</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -470,11 +451,6 @@
       <c r="C6" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -484,13 +460,8 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -500,53 +471,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
